--- a/biology/Zoologie/Cromna_elegans/Cromna_elegans.xlsx
+++ b/biology/Zoologie/Cromna_elegans/Cromna_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Siphanta acuta est une espèce d'insectes de l'ordre des Hémiptères, du sous-ordre des Auchenorrhyncha, de la famille des Flatidae, de la sous-famille des Flatinae, de la tribu des Flatini et de la sous-tribu des Siphantina. Elle est trouvée dans diverses parties du monde.
 Les ailes sont triangulaires et de couleur verte. Elles sont bordées de points rouges. L'insecte, posé sur une branche, ressemble à une feuille.
